--- a/WSC/Test Report/Payroll/Payroll_Masters.xlsx
+++ b/WSC/Test Report/Payroll/Payroll_Masters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="437">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -922,7 +922,281 @@
     <t>Step 53</t>
   </si>
   <si>
+    <t>Step 54</t>
+  </si>
+  <si>
+    <t>After approved the salary structure, click on preview salary slip button</t>
+  </si>
+  <si>
+    <t>Popup should be open for enter data which is required to view salary slip</t>
+  </si>
+  <si>
+    <t>Popup is opening for enter data which is required to view salary slip</t>
+  </si>
+  <si>
+    <t>Step 55</t>
+  </si>
+  <si>
+    <t>click on employee dropdown, select the employee</t>
+  </si>
+  <si>
+    <t>user should able to select employee</t>
+  </si>
+  <si>
+    <t>user is able to select employee</t>
+  </si>
+  <si>
+    <t>Step 56</t>
+  </si>
+  <si>
+    <t>After select employee, click on show salary slip button</t>
+  </si>
+  <si>
+    <t>salary slip should be shown for that particular employee</t>
+  </si>
+  <si>
+    <t>salary slip is showing for that particular employee</t>
+  </si>
+  <si>
+    <t>Step 57</t>
+  </si>
+  <si>
+    <t>after approved the salary structure, click on assign salary structure button</t>
+  </si>
+  <si>
+    <t>New Salary Structure Assignment page should be open</t>
+  </si>
+  <si>
+    <t>New Salary Structure Assignment page is opening</t>
+  </si>
+  <si>
+    <t>Step 58</t>
+  </si>
+  <si>
+    <t>click employee field, select the employee</t>
+  </si>
+  <si>
+    <t>User should able to select employee
+after select the employee, that employee's data should be auto fetched</t>
+  </si>
+  <si>
+    <t>User is able to select employee
+after select the employee, that employee's data is auto fetched</t>
+  </si>
+  <si>
+    <t>Step 59</t>
+  </si>
+  <si>
+    <t>click Salary Structure field, select the Salary Structure</t>
+  </si>
+  <si>
+    <t>User should able to select Salary Structure
+after select the Salary Structure, that Salary Structure's data should be auto fetched</t>
+  </si>
+  <si>
+    <t>User is able to select Salary Structure
+after select the Salary Structure, that Salary Structure's data is auto fetched</t>
+  </si>
+  <si>
+    <t>Step 60</t>
+  </si>
+  <si>
+    <t>click on From Date, put the date</t>
+  </si>
+  <si>
+    <t>User should able to put the date</t>
+  </si>
+  <si>
+    <t>User is able to put the date</t>
+  </si>
+  <si>
+    <t>Step 61</t>
+  </si>
+  <si>
+    <t>click on Income Tax Slab, select data</t>
+  </si>
+  <si>
+    <t>user should able to select Income Tax Slab</t>
+  </si>
+  <si>
+    <t>user is able to select Income Tax Slab</t>
+  </si>
+  <si>
+    <t>Step 62</t>
+  </si>
+  <si>
+    <t>click on Base , put the value</t>
+  </si>
+  <si>
+    <t>user should able to put the value on Base field with only numeric</t>
+  </si>
+  <si>
+    <t>user is able to put the value on Base field with only numeric</t>
+  </si>
+  <si>
+    <t>Step 63</t>
+  </si>
+  <si>
+    <t>click on Variable , put the value</t>
+  </si>
+  <si>
+    <t>user should able to put the value on Variable field with only numeric</t>
+  </si>
+  <si>
+    <t>user is able to put the value on Variable field with only numeric</t>
+  </si>
+  <si>
+    <t>Step 64</t>
+  </si>
+  <si>
+    <t>click on add row of Cost Centers</t>
+  </si>
+  <si>
+    <t>new row is added</t>
+  </si>
+  <si>
+    <t>Step 65</t>
+  </si>
+  <si>
+    <t>click on Cost Centers dropdown, select the Cost Centers</t>
+  </si>
+  <si>
+    <t>user should able to select the Cost Centers from dropdown</t>
+  </si>
+  <si>
+    <t>user is able to select the Cost Centers from dropdown</t>
+  </si>
+  <si>
+    <t>Step 66</t>
+  </si>
+  <si>
+    <t>click on percentage , put the value</t>
+  </si>
+  <si>
+    <t>user should able to put the value on poercentage field with only numeric
+total percenteage of cost center should accept on 100</t>
+  </si>
+  <si>
+    <t>user is able to put the value on poercentage field with only numeric
+total percenteage of cost center is accepting on 100</t>
+  </si>
+  <si>
+    <t>Step 67</t>
+  </si>
+  <si>
+    <t>click save &gt; submit</t>
+  </si>
+  <si>
+    <t>page should be saved and submitted successfully
+that employee should assigned as that salary structure</t>
+  </si>
+  <si>
+    <t>page is saved and submitted successfully
+that employee is assigned as that salary structure</t>
+  </si>
+  <si>
+    <t>Step 68</t>
+  </si>
+  <si>
+    <t>after approved the salary structure, click on assign to employee button</t>
+  </si>
+  <si>
+    <t>Assign to employee button is clickable
+Assign to Employees page should be open</t>
+  </si>
+  <si>
+    <t>Assign to employee button is clickable
+Assign to Employees page is opening</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>click on Employee Grade dropdown, select data</t>
+  </si>
+  <si>
+    <t>user should able to select Employee Grade
+base and variable value should be auto fetched</t>
+  </si>
+  <si>
+    <t>user is able to select Employee Grade
+base and variable value is auto fetched</t>
+  </si>
+  <si>
+    <t>Step 70</t>
+  </si>
+  <si>
+    <t>click on Department dropdown, select data</t>
+  </si>
+  <si>
+    <t>user should able to select Department</t>
+  </si>
+  <si>
+    <t>user is able to select Department</t>
+  </si>
+  <si>
+    <t>Step 71</t>
+  </si>
+  <si>
+    <t>click on Designation dropdown, select data</t>
+  </si>
+  <si>
+    <t>user should able to select Designation</t>
+  </si>
+  <si>
+    <t>user is able to select Designation</t>
+  </si>
+  <si>
+    <t>Step 72</t>
+  </si>
+  <si>
+    <t>click on Employee dropdown, select data</t>
+  </si>
+  <si>
+    <t>user should able to select Employee</t>
+  </si>
+  <si>
+    <t>user is able to select Employee</t>
+  </si>
+  <si>
+    <t>Step 73</t>
+  </si>
+  <si>
+    <t>click on Payroll Payable Account dropdown, select data</t>
+  </si>
+  <si>
+    <t>user should able to select Payroll Payable Account</t>
+  </si>
+  <si>
+    <t>user is able to select Payroll Payable Account</t>
+  </si>
+  <si>
+    <t>Step 74</t>
+  </si>
+  <si>
+    <t>Step 75</t>
+  </si>
+  <si>
+    <t>Step 76</t>
+  </si>
+  <si>
+    <t>click save button</t>
+  </si>
+  <si>
+    <t>Page should be saved</t>
+  </si>
+  <si>
+    <t>Page is  saved</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The Payroll Admin should have the following access 
 </t>
     </r>
@@ -940,6 +1214,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The Payroll Admin  have the following access 
 </t>
     </r>
@@ -957,6 +1238,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The HR Admin should have the following access 
 </t>
     </r>
@@ -974,6 +1262,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The HR Admin  have the following access 
 </t>
     </r>
@@ -991,6 +1286,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The Employee should  have the following access 
 </t>
     </r>
@@ -1007,387 +1309,240 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The Employee  have the following access 
+    <t>Home &gt; Payroll&gt; Masters &gt; Income Tax Slab</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Payroll&gt; Masters &gt; Income Tax Slab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Income Tax Slab page is opening</t>
+  </si>
+  <si>
+    <t>Click on "+ ADD Income Tax Slab" button on the top right corner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New addition of Income Tax Slab page is opening</t>
+  </si>
+  <si>
+    <t>Enter Name,Effective From,Currency(Mandatory Field),Company,Taxable Salary Slabs,Taxes and Charges on Income Tax.Click on "Save" Button .</t>
+  </si>
+  <si>
+    <t>Name,Effective From is entered successfully
+currency is Showing INR as default</t>
+  </si>
+  <si>
+    <t>Do not enter the mandatory fields and click on "Save" Button .</t>
+  </si>
+  <si>
+    <t>The error should be shown as below for the mandatory field missing.</t>
+  </si>
+  <si>
+    <t>The error is showing as below for the mandatory field missing.</t>
+  </si>
+  <si>
+    <t>Choose Effective from date .</t>
+  </si>
+  <si>
+    <t>The date should be validated.</t>
+  </si>
+  <si>
+    <t>datepicker box is opening, user is able to choose the date</t>
+  </si>
+  <si>
+    <t>Click on the option Allow Tax Exemption.</t>
+  </si>
+  <si>
+    <t>There would be new text box added "Standard Tax Exemption Amount" and Tax Exemption Declaration will be considered for income tax calculation.</t>
+  </si>
+  <si>
+    <t>Allow Tax Exemption checkbox is clickable
+If Allow Tax Exemption checkbox is enable, Tax Exemption Declaration will be considered for income tax calculation
+Standard Tax Exemption Amount field is showing. it is entered successfully. it is not depending on Allow Tax Exemption checkbox</t>
+  </si>
+  <si>
+    <t>Enter the below fields in the Taxable Salary Slabs (No,From Amount,To Amount,Percent Deduction,Condition).</t>
+  </si>
+  <si>
+    <t>From Amount and To Amount is entered successfully only with numeric
+Percent Deduction is entered successfully only with numeric between 0 to 100
+condition is entered successfully</t>
+  </si>
+  <si>
+    <t>Click on Expand button and data in the (No.,Description,Percent,Min Taxable Income,Max Taxable Income
+)fields of "Taxes and Charges on Income Tax ".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand button is clickable. field is expand
+data can be entered successfully
+In the Taxes and Charges on Income Tax  table, Description can be entered successfully
+Percent can be entered successfully only with numeric between 0 to 100
+Min Taxable Income can be entered successfully only with numeric 
+Max Taxable Income can be entered successfully only with numeric </t>
+  </si>
+  <si>
+    <t>Click on Add Row. (for both the above tables)</t>
+  </si>
+  <si>
+    <t>A new row will be added to the table.</t>
+  </si>
+  <si>
+    <t>A new row is added to the table.</t>
+  </si>
+  <si>
+    <t>Page is opening for edit</t>
+  </si>
+  <si>
+    <t>User can Edit Row by editing the fields in the tables.
+-From Amount,To Amount,Percent Deduction,Condition .Click on SAVE.</t>
+  </si>
+  <si>
+    <t>the selected row is deleted successfully</t>
+  </si>
+  <si>
+    <t>User can Edit Row by editing the fields in the tables.
+-Description,Percent,Min Taxable Income,Max Taxable Income.Click on SAVE.</t>
+  </si>
+  <si>
+    <t>The rows added successfully.</t>
+  </si>
+  <si>
+    <t>The row selection is reset to deafult one.</t>
+  </si>
+  <si>
+    <t>The tableis updated with the user selection</t>
+  </si>
+  <si>
+    <t>Select one of the rows or multiple rows and click on "Delete" button.</t>
+  </si>
+  <si>
+    <t>Go back to the Income Tax Slab list view and click on a Tax slab and check the data,enter in Add comment section.</t>
+  </si>
+  <si>
+    <t>The data entered is saved successfully.</t>
+  </si>
+  <si>
+    <t>The data is entered successfully.</t>
+  </si>
+  <si>
+    <t>Home &gt; Payroll&gt; Masters &gt; Payroll Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Click on Home &gt; Payroll&gt; Masters &gt; Payroll Period
 </t>
-    </r>
+  </si>
+  <si>
+    <t>Payroll Period page opens up.</t>
+  </si>
+  <si>
+    <t>Payroll Period page is opening</t>
+  </si>
+  <si>
+    <t>Click on "+ ADD Payroll Period" button on the top right corner.</t>
+  </si>
+  <si>
+    <t>New Payroll Period page opens up.</t>
+  </si>
+  <si>
+    <t>New addition of Payroll Period page is opening</t>
+  </si>
+  <si>
+    <t>Enter Payroll Period Name,Company,Start Date,End Date.Click on "Save" Button .</t>
+  </si>
+  <si>
+    <t>The field is successfully entered and saved.</t>
+  </si>
+  <si>
+    <t>Payroll Period Name,Company,Start Date,End Date is entered successfully
+page is saved successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The error should be shown as below for the mandatory field missing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The error is showing as below for the mandatory field missing.
+</t>
+  </si>
+  <si>
+    <t>Enter Start date and End date .</t>
+  </si>
+  <si>
+    <t>The dates are added successfully.</t>
+  </si>
+  <si>
+    <t>Step 77</t>
+  </si>
+  <si>
+    <t>Enter Start date greater than End date.</t>
+  </si>
+  <si>
+    <t>Error should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start date is not accepting back date of end date </t>
+  </si>
+  <si>
+    <t>Step 78</t>
+  </si>
+  <si>
+    <t>Enter the End date before than the Start date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End date is not accepting Previous date of start date </t>
+  </si>
+  <si>
+    <t>Step 79</t>
+  </si>
+  <si>
+    <t>Go back to the Payroll Period page and click on any of the Payroll Period
+ for eg :- "Contract worker payment".</t>
+  </si>
+  <si>
+    <t>The Payment page opens.</t>
+  </si>
+  <si>
+    <t>That particular payroll period page is opening</t>
+  </si>
+  <si>
+    <t>Expected result is  written wrong  but functionality is working properly</t>
+  </si>
+  <si>
+    <t>Step 80</t>
+  </si>
+  <si>
+    <t>click on attach button of Upload Approval, choose the document, upload the document</t>
+  </si>
+  <si>
+    <t>attach button should be clickable, 
+user should able to upload document</t>
+  </si>
+  <si>
+    <t>attach buttonis clickable, 
+Link to choose document is showing
+user is able to choose the document through link
+user is able to upload document</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>page should be saved successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page is saved successfully </t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read</t>
-    </r>
-  </si>
-  <si>
-    <t>Home &gt; Payroll&gt; Masters &gt; Income Tax Slab</t>
-  </si>
-  <si>
-    <t>Step 54</t>
-  </si>
-  <si>
-    <t>Click on Home &gt; Payroll&gt; Masters &gt; Income Tax Slab</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Income Tax Slab page is opening</t>
-  </si>
-  <si>
-    <t>Step 55</t>
-  </si>
-  <si>
-    <t>Click on "+ ADD Income Tax Slab" button on the top right corner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New addition of Income Tax Slab page is opening</t>
-  </si>
-  <si>
-    <t>Step 56</t>
-  </si>
-  <si>
-    <t>Enter Name,Effective From,Currency(Mandatory Field),Company,Taxable Salary Slabs,Taxes and Charges on Income Tax.Click on "Save" Button .</t>
-  </si>
-  <si>
-    <t>Name,Effective From is entered successfully
-currency is Showing INR as default</t>
-  </si>
-  <si>
-    <t>Step 57</t>
-  </si>
-  <si>
-    <t>Do not enter the mandatory fields and click on "Save" Button .</t>
-  </si>
-  <si>
-    <t>The error should be shown as below for the mandatory field missing.</t>
-  </si>
-  <si>
-    <t>The error is showing as below for the mandatory field missing.</t>
-  </si>
-  <si>
-    <t>Step 58</t>
-  </si>
-  <si>
-    <t>Choose Effective from date .</t>
-  </si>
-  <si>
-    <t>The date should be validated.</t>
-  </si>
-  <si>
-    <t>datepicker box is opening, user is able to choose the date</t>
-  </si>
-  <si>
-    <t>Step 59</t>
-  </si>
-  <si>
-    <t>Click on the option Allow Tax Exemption.</t>
-  </si>
-  <si>
-    <t>There would be new text box added "Standard Tax Exemption Amount" and Tax Exemption Declaration will be considered for income tax calculation.</t>
-  </si>
-  <si>
-    <t>Allow Tax Exemption checkbox is clickable
-If Allow Tax Exemption checkbox is enable, Tax Exemption Declaration will be considered for income tax calculation
-Standard Tax Exemption Amount field is showing. it is entered successfully. it is not depending on Allow Tax Exemption checkbox</t>
-  </si>
-  <si>
-    <t>Step 60</t>
-  </si>
-  <si>
-    <t>Enter the below fields in the Taxable Salary Slabs (No,From Amount,To Amount,Percent Deduction,Condition).</t>
-  </si>
-  <si>
-    <t>From Amount and To Amount is entered successfully only with numeric
-Percent Deduction is entered successfully only with numeric between 0 to 100
-condition is entered successfully</t>
-  </si>
-  <si>
-    <t>Step 61</t>
-  </si>
-  <si>
-    <t>Click on Expand button and data in the (No.,Description,Percent,Min Taxable Income,Max Taxable Income
-)fields of "Taxes and Charges on Income Tax ".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand button is clickable. field is expand
-data can be entered successfully
-In the Taxes and Charges on Income Tax  table, Description can be entered successfully
-Percent can be entered successfully only with numeric between 0 to 100
-Min Taxable Income can be entered successfully only with numeric 
-Max Taxable Income can be entered successfully only with numeric </t>
-  </si>
-  <si>
-    <t>Step 62</t>
-  </si>
-  <si>
-    <t>Click on Add Row. (for both the above tables)</t>
-  </si>
-  <si>
-    <t>A new row will be added to the table.</t>
-  </si>
-  <si>
-    <t>A new row is added to the table.</t>
-  </si>
-  <si>
-    <t>Step 63</t>
-  </si>
-  <si>
-    <t>Page is opening for edit</t>
-  </si>
-  <si>
-    <t>Step 64</t>
-  </si>
-  <si>
-    <t>User can Edit Row by editing the fields in the tables.
--From Amount,To Amount,Percent Deduction,Condition .Click on SAVE.</t>
-  </si>
-  <si>
-    <t>Step 65</t>
-  </si>
-  <si>
-    <t>the selected row is deleted successfully</t>
-  </si>
-  <si>
-    <t>Step 66</t>
-  </si>
-  <si>
-    <t>User can Edit Row by editing the fields in the tables.
--Description,Percent,Min Taxable Income,Max Taxable Income.Click on SAVE.</t>
-  </si>
-  <si>
-    <t>The rows added successfully.</t>
-  </si>
-  <si>
-    <t>Step 67</t>
-  </si>
-  <si>
-    <t>Step 68</t>
-  </si>
-  <si>
-    <t>The row selection is reset to deafult one.</t>
-  </si>
-  <si>
-    <t>Step 69</t>
-  </si>
-  <si>
-    <t>The tableis updated with the user selection</t>
-  </si>
-  <si>
-    <t>Step 70</t>
-  </si>
-  <si>
-    <t>Select one of the rows or multiple rows and click on "Delete" button.</t>
-  </si>
-  <si>
-    <t>Step 71</t>
-  </si>
-  <si>
-    <t>Go back to the Income Tax Slab list view and click on a Tax slab and check the data,enter in Add comment section.</t>
-  </si>
-  <si>
-    <t>The data entered is saved successfully.</t>
-  </si>
-  <si>
-    <t>The data is entered successfully.</t>
-  </si>
-  <si>
-    <t>Home &gt; Payroll&gt; Masters &gt; Payroll Period</t>
-  </si>
-  <si>
-    <t>Step 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Click on Home &gt; Payroll&gt; Masters &gt; Payroll Period
-</t>
-  </si>
-  <si>
-    <t>Payroll Period page opens up.</t>
-  </si>
-  <si>
-    <t>Payroll Period page is opening</t>
-  </si>
-  <si>
-    <t>Step 73</t>
-  </si>
-  <si>
-    <t>Click on "+ ADD Payroll Period" button on the top right corner.</t>
-  </si>
-  <si>
-    <t>New Payroll Period page opens up.</t>
-  </si>
-  <si>
-    <t>New addition of Payroll Period page is opening</t>
-  </si>
-  <si>
-    <t>Step 74</t>
-  </si>
-  <si>
-    <t>Enter Payroll Period Name,Company,Start Date,End Date.Click on "Save" Button .</t>
-  </si>
-  <si>
-    <t>The field is successfully entered and saved.</t>
-  </si>
-  <si>
-    <t>Payroll Period Name,Company,Start Date,End Date is entered successfully
-page is saved successfully</t>
-  </si>
-  <si>
-    <t>Step 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The error should be shown as below for the mandatory field missing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The error is showing as below for the mandatory field missing.
-</t>
-  </si>
-  <si>
-    <t>Step 76</t>
-  </si>
-  <si>
-    <t>Enter Start date and End date .</t>
-  </si>
-  <si>
-    <t>The dates are added successfully.</t>
-  </si>
-  <si>
-    <t>Step 77</t>
-  </si>
-  <si>
-    <t>Enter Start date greater than End date.</t>
-  </si>
-  <si>
-    <t>Error should be displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start date is not accepting back date of end date </t>
-  </si>
-  <si>
-    <t>Step 78</t>
-  </si>
-  <si>
-    <t>Enter the End date before than the Start date.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End date is not accepting Previous date of start date </t>
-  </si>
-  <si>
-    <t>Step 79</t>
-  </si>
-  <si>
-    <t>Go back to the Payroll Period page and click on any of the Payroll Period
- for eg :- "Contract worker payment".</t>
-  </si>
-  <si>
-    <t>The Payment page opens.</t>
-  </si>
-  <si>
-    <t>That particular payroll period page is opening</t>
-  </si>
-  <si>
-    <t>Expected result is  written wrong  but functionality is working properly</t>
-  </si>
-  <si>
-    <t>Step 80</t>
-  </si>
-  <si>
-    <t>click on attach button of Upload Approval, choose the document, upload the document</t>
-  </si>
-  <si>
-    <t>attach button should be clickable, 
-user should able to upload document</t>
-  </si>
-  <si>
-    <t>attach buttonis clickable, 
-Link to choose document is showing
-user is able to choose the document through link
-user is able to upload document</t>
-  </si>
-  <si>
-    <t>Step 81</t>
-  </si>
-  <si>
-    <t>page should be saved successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page is saved successfully </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Payroll Admin should have the following access 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read, Write, Create, Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Payroll Admin  have the following access 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read, Write, Create, Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The HR Admin should have the following access 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read, Write, Create</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The HR Admin  have the following access 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read, Write, Create</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The Employee   have the following access 
 </t>
     </r>
@@ -1527,7 +1682,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +1717,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2163,146 +2325,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2381,9 +2540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2396,23 +2552,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2423,13 +2576,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2971,10 +3124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
@@ -2991,2875 +3144,3435 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="75" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="4:8">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:8">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:8">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:8">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:8">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:8">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="5"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:8">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:8">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="5"/>
+      <c r="G31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:8">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="5"/>
+      <c r="G32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:8">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="5"/>
+      <c r="G33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="5"/>
+      <c r="G34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:8">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="5"/>
+      <c r="G35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="75" spans="1:8">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="5"/>
+      <c r="G36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:8">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="5"/>
+      <c r="G37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="G38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="5"/>
+      <c r="G39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:8">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="G40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:8">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="G41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="15.75" spans="2:8">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="E43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="E44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A45" s="5"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="25">
         <v>6</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:8">
-      <c r="A46" s="5"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A47" s="5"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="G48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:8">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="5" t="s">
+      <c r="G49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="135" spans="1:8">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="E50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="G50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="105" spans="1:8">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="5" t="s">
+      <c r="G51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="5"/>
+      <c r="G52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="G53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:8">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="5" t="s">
+      <c r="G54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="E55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="G55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="90" spans="1:8">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:8">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="5" t="s">
+      <c r="G61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="29" t="s">
+      <c r="E62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="5" t="s">
+      <c r="G62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="E63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="5" t="s">
+      <c r="G63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A64" s="4" t="s">
+    <row r="64" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-    </row>
-    <row r="65" s="2" customFormat="1" spans="1:8">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:8">
+      <c r="A65" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="36" t="s">
+      <c r="E65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" s="3" customFormat="1" ht="30" spans="1:8">
-      <c r="A66" s="5" t="s">
+      <c r="G65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A66" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="37" t="s">
+      <c r="E66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="39"/>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="30" spans="1:8">
-      <c r="A67" s="5" t="s">
+      <c r="G66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="32"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A67" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="37" t="s">
+      <c r="E67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="39"/>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="30" spans="1:8">
-      <c r="A68" s="5" t="s">
+      <c r="G67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="32"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A68" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="37" t="s">
+      <c r="E68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="39"/>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="30" spans="1:8">
-      <c r="A69" s="5" t="s">
+      <c r="G68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="32"/>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A69" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="36" t="s">
+      <c r="E69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="39"/>
-    </row>
-    <row r="70" s="3" customFormat="1" ht="30" spans="1:8">
-      <c r="A70" s="5" t="s">
+      <c r="G69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="32"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A70" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="37" t="s">
+      <c r="E70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="39"/>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="30" spans="1:8">
-      <c r="A71" s="5" t="s">
+      <c r="G70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="32"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A71" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="37" t="s">
+      <c r="E71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="39"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:8">
-      <c r="A72" s="5" t="s">
+      <c r="G71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="32"/>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:8">
+      <c r="A72" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="36" t="s">
+      <c r="E72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="39"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:8">
-      <c r="A73" s="5" t="s">
+      <c r="G72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="32"/>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:8">
+      <c r="A73" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="36" t="s">
+      <c r="E73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="39"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A74" s="29"/>
-      <c r="B74" s="19" t="s">
+      <c r="G73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="32"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A75" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A76" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A77" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="47.25" spans="1:8">
+      <c r="A78" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="47.25" spans="1:8">
+      <c r="A79" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A80" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A81" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A82" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A83" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A84" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A85" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="63" spans="1:8">
+      <c r="A86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A87" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A88" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A89" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A90" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A91" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A92" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A93" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A94" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A95" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A96" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A97" s="4"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20" t="s">
+      <c r="C98" s="18"/>
+      <c r="D98" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E98" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F98" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23" t="s">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A99" s="21"/>
+      <c r="B99" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C99" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A101" s="4"/>
+      <c r="B101" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="25"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:8">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A103" s="4"/>
+      <c r="B103" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:8">
+      <c r="A104" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22" t="s">
+      <c r="B104" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:8">
+      <c r="A105" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A106" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A107" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A108" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="120" spans="1:8">
+      <c r="A109" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="75" spans="1:8">
+      <c r="A110" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="165" spans="1:8">
+      <c r="A111" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:8">
+      <c r="A112" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:8">
+      <c r="A113" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A114" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:8">
+      <c r="A115" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A116" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:8">
+      <c r="A117" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:8">
+      <c r="A118" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:8">
+      <c r="A119" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A120" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A121" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A122" s="4"/>
+      <c r="B122" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A123" s="21"/>
+      <c r="B123" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A77" s="5"/>
-      <c r="B77" s="22" t="s">
+      <c r="C124" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A125" s="4"/>
+      <c r="B125" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:8">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A79" s="5"/>
-      <c r="B79" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="9" t="s">
+      <c r="C125" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="25"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="1:8">
+      <c r="A126" s="4"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A127" s="4"/>
+      <c r="B127" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F127" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H127" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:8">
-      <c r="A80" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:8">
-      <c r="A81" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A82" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="8" t="s">
+    <row r="128" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A128" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:8">
+      <c r="A129" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A130" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A131" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:8">
+      <c r="A132" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:8">
+      <c r="A133" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:8">
+      <c r="A134" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A135" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A136" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:8">
+      <c r="A137" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A138" s="4"/>
+      <c r="B138" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A139" s="21"/>
+      <c r="B139" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A141" s="4"/>
+      <c r="B141" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="25"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:8">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:8">
+      <c r="A143" s="4"/>
+      <c r="B143" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:8">
+      <c r="A144" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E144" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:8">
+      <c r="A145" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" s="41"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="105" spans="1:8">
+      <c r="A146" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A83" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A84" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="120" spans="1:8">
-      <c r="A85" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="75" spans="1:8">
-      <c r="A86" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="165" spans="1:8">
-      <c r="A87" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:8">
-      <c r="A88" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:8">
-      <c r="A89" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="D146" s="41"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A147" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="41"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:8">
+      <c r="A148" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="41"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:8">
+      <c r="A149" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:8">
+      <c r="A150" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A90" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:8">
-      <c r="A91" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="40" t="s">
+      <c r="D150" s="41"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:8">
+      <c r="A151" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D151" s="41"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:8">
+      <c r="A152" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C152" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A92" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:8">
-      <c r="A93" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="1:8">
-      <c r="A94" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:8">
-      <c r="A95" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A96" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" s="5"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A97" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A98" s="29"/>
-      <c r="B98" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A101" s="5"/>
-      <c r="B101" s="22" t="s">
+      <c r="D152" s="41"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:8">
+      <c r="A153" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:8">
+      <c r="A154" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:8">
+      <c r="A155" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:8">
+      <c r="A156" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:8">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:5">
+      <c r="A158" s="43"/>
+      <c r="B158" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C158" s="43"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="42"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A159" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D159" s="41"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D160" s="41"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A161" s="4"/>
+      <c r="B161" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:8">
-      <c r="A102" s="5"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A103" s="5"/>
-      <c r="B103" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A104" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" s="5"/>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:8">
-      <c r="A105" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A106" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A107" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="1:8">
-      <c r="A108" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" s="5"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:8">
-      <c r="A109" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" s="5"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:8">
-      <c r="A110" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" s="5"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A111" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A112" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" s="5"/>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="1:8">
-      <c r="A113" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" s="5"/>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A114" s="29"/>
-      <c r="B114" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="19"/>
-      <c r="D114" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A117" s="5"/>
-      <c r="B117" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="26"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:8">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:8">
-      <c r="A119" s="5"/>
-      <c r="B119" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="1:8">
-      <c r="A120" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D120" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="E120" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:8">
-      <c r="A121" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D121" s="44"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="105" spans="1:8">
-      <c r="A122" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A123" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="44"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="1:8">
-      <c r="A124" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="1:8">
-      <c r="A125" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="1:8">
-      <c r="A126" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D126" s="44"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-    </row>
-    <row r="127" s="1" customFormat="1" spans="1:8">
-      <c r="A127" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="1:8">
-      <c r="A128" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D128" s="44"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="1:8">
-      <c r="A129" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-    </row>
-    <row r="130" s="1" customFormat="1" spans="1:8">
-      <c r="A130" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-    </row>
-    <row r="131" s="1" customFormat="1" spans="1:8">
-      <c r="A131" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:8">
-      <c r="A132" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" s="1" customFormat="1" spans="1:8">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-    </row>
-    <row r="134" s="1" customFormat="1" spans="1:5">
-      <c r="A134" s="46"/>
-      <c r="B134" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="C134" s="46"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="45"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A135" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A136" s="22"/>
-      <c r="B136" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D136" s="44"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A137" s="5"/>
-      <c r="B137" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D137" s="44"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-    </row>
-    <row r="138" s="1" customFormat="1" spans="1:8">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:8">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="C161" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D161" s="41"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:8">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:8">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B138:C138"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D120:D137"/>
+    <mergeCell ref="D144:D161"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E120:E137"/>
+    <mergeCell ref="E144:E161"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F58:F60"/>
     <mergeCell ref="G27:G28"/>
